--- a/excelData/InputNhanVien.xlsx
+++ b/excelData/InputNhanVien.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>Họ và tên</t>
   </si>
@@ -49,16 +49,16 @@
     <t>Lương thỏa thuận</t>
   </si>
   <si>
-    <t>Nguyễn Tuấn Vũ</t>
-  </si>
-  <si>
-    <t>489756125478</t>
-  </si>
-  <si>
-    <t>tuanvu@gmail.com</t>
-  </si>
-  <si>
-    <t>+84999999999</t>
+    <t>Nguyễn Tuấn Vịnh</t>
+  </si>
+  <si>
+    <t>489743214478</t>
+  </si>
+  <si>
+    <t>tuanvinh@gmail.com</t>
+  </si>
+  <si>
+    <t>+84992231313</t>
   </si>
   <si>
     <t>Nguyễn Du Phường 9</t>
@@ -82,16 +82,16 @@
     <t>19000000</t>
   </si>
   <si>
-    <t>Nguyễn Trần Thanh Tùng</t>
-  </si>
-  <si>
-    <t>457865941345</t>
-  </si>
-  <si>
-    <t>thanhtung@gmail.com</t>
-  </si>
-  <si>
-    <t>+84888888888</t>
+    <t>Nguyễn Trần Thanh Tài</t>
+  </si>
+  <si>
+    <t>457861122245</t>
+  </si>
+  <si>
+    <t>thanhtai@gmail.com</t>
+  </si>
+  <si>
+    <t>+84812321311</t>
   </si>
   <si>
     <t>Nguyễn Văn Cừ  Nghệ An</t>
@@ -100,37 +100,49 @@
     <t>21000000</t>
   </si>
   <si>
-    <t>Nguyễn Tiến Trường</t>
-  </si>
-  <si>
-    <t>984567812345</t>
+    <t>Nguyễn Tiến Trương</t>
+  </si>
+  <si>
+    <t>984313134345</t>
   </si>
   <si>
     <t>tientruong@gmail.com</t>
   </si>
   <si>
-    <t>+84777777777</t>
+    <t>+84313212313</t>
   </si>
   <si>
     <t>Nguyễn Diệu thành Phố Huế</t>
   </si>
   <si>
+    <t>Phòng nhân sự</t>
+  </si>
+  <si>
+    <t>Nhân viên</t>
+  </si>
+  <si>
     <t>16000000</t>
   </si>
   <si>
-    <t>Cao Xuân Bách</t>
-  </si>
-  <si>
-    <t>985647586345</t>
-  </si>
-  <si>
-    <t>caobach@gmail.com</t>
-  </si>
-  <si>
-    <t>+84666666666</t>
+    <t>Nguyễn Thị Hồng Lệ</t>
+  </si>
+  <si>
+    <t>981231316345</t>
+  </si>
+  <si>
+    <t>hongle@gmail.com</t>
+  </si>
+  <si>
+    <t>+84312312311</t>
   </si>
   <si>
     <t>Nguyễn Tất Thành, thành phố Đà Nẵng-</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>Phòng tài chính</t>
   </si>
   <si>
     <t>17000000</t>
@@ -1079,7 +1091,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -1227,59 +1239,59 @@
         <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="tuanvu@gmail.com" tooltip="mailto:tuanvu@gmail.com"/>
-    <hyperlink ref="C3" r:id="rId2" display="thanhtung@gmail.com" tooltip="mailto:thanhtung@gmail.com"/>
+    <hyperlink ref="C2" r:id="rId1" display="tuanvinh@gmail.com" tooltip="mailto:tuanvinh@gmail.com"/>
+    <hyperlink ref="C3" r:id="rId2" display="thanhtai@gmail.com" tooltip="mailto:thanhtai@gmail.com"/>
     <hyperlink ref="C4" r:id="rId3" display="tientruong@gmail.com" tooltip="mailto:tientruong@gmail.com"/>
-    <hyperlink ref="C5" r:id="rId4" display="caobach@gmail.com" tooltip="mailto:caobach@gmail.com"/>
+    <hyperlink ref="C5" r:id="rId4" display="hongle@gmail.com" tooltip="mailto:hongle@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
